--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_38_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_38_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.3492420951221673, 2.8925471051786014]</t>
+          <t>[2.354339822786888, 2.8874493775138808]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[-0.04094955636760167, 0.2900944274576429]</t>
+          <t>[-0.040963747929597005, 0.29010861901963825]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.1365582149627711</v>
+        <v>0.1365910183488084</v>
       </c>
       <c r="V2" t="n">
-        <v>0.1365582149627711</v>
+        <v>0.1365910183488084</v>
       </c>
       <c r="W2" t="n">
         <v>5.659659659659855</v>
